--- a/2-Patient Data/ig/results.xlsx
+++ b/2-Patient Data/ig/results.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnlab\OneDrive\Documents\GitHub\AlphaFold\Neurofeedback-Based-BCI\2-Patient Data\ig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\Neurofeedback-Based-BCI_r\2-Patient Data\ig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B1C5BF-952C-439D-BF02-00C8F0151203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C620BF-D231-4282-A574-3A61F3F562A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="22905" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6840" yWindow="3803" windowWidth="8917" windowHeight="10132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -913,15 +924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1215,55 +1226,55 @@
   <dimension ref="D4:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D4">
         <v>0.7241379</v>
       </c>
     </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D5">
         <v>0.80555549999999998</v>
       </c>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D6">
         <v>0.77272719999999995</v>
       </c>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D7">
         <v>0.77272719999999995</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>0.74509800000000004</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>0.76470579999999999</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>0.70588229999999996</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>0.7241379</v>
       </c>
     </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>0.75862059999999998</v>
       </c>
